--- a/BackTest/2020-01-14 BackTest DAC.xlsx
+++ b/BackTest/2020-01-14 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,7 +913,7 @@
         <v>665281.1683809521</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>872587.0359875889</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1006676.048187589</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>948668.6037875889</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>780631.8648875889</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>637471.1346875889</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>686074.4918875889</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>844912.9626875889</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>785359.4351875889</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>934244.370187589</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>918917.888287589</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1444363.063187589</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1425363.738187589</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1468788.931987589</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1518378.717787589</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1476353.089987589</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>965505.8290875891</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1006884.808687589</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>961789.957587589</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>981599.6293875891</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1048316.430187589</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1071626.689187589</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1001239.861187589</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1019024.994287589</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>983799.9164875891</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>949981.2463875891</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>988984.2615875892</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>934422.8436875892</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>975122.1153875892</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>936290.2842875893</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>933015.7455875892</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>771807.9628875892</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>807742.6413875893</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>763802.1078875893</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>802745.1665875893</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>764104.3498875893</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>722684.4150875893</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>753748.0686875893</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>723161.8979875892</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>725930.0044875891</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>755377.5527875891</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>711135.4358875891</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>622986.4867875892</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>494195.8457875891</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>423108.2353875891</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>362449.4604875891</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>282331.1781875891</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>579820.422787589</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>579820.422787589</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>579820.422787589</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>579820.422787589</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>579820.422787589</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>610553.890987589</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>554654.953087589</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>516441.182187589</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>474289.170687589</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>518098.678387589</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>571284.178787589</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>507902.8954875889</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>540286.029787589</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>32085.33028758899</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-20076.49311241101</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-71944.73541241101</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-27838.96481241101</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-86565.56811241098</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>528994.858587589</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>510953.277287589</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>446405.973387589</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>463185.2469875889</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>414991.0123875889</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>492234.8130875889</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>548469.4157875889</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>540023.769787589</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>458761.852787589</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>517681.5729875889</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>578010.430887589</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>602735.8303875891</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>564590.4348875891</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>485680.1822875891</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>456822.4657875891</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>496519.8385875891</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>530534.8273875891</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>530534.8273875891</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>514454.5609875891</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>514454.5609875891</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>564145.3402875891</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>378454.7431875891</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>396466.3252875891</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>434086.5305875891</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>397481.6019875892</v>
       </c>
       <c r="H280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>434659.1795875892</v>
       </c>
       <c r="H281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>394448.5952875892</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>447557.9642875892</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>447557.9642875892</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>494444.4662875892</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>551936.6124875891</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>610673.6786875892</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>681287.3528875893</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>718392.2130875892</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>684032.3835875893</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>723134.2627875892</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>678997.1855875892</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>647384.8413875891</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>610400.8093875891</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>651595.4583875891</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>722466.4547875891</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>676434.1546875892</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>676434.1546875892</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>634829.4173875891</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>612960.0313875892</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>542251.0177875892</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>588215.0544875893</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>563619.1326875893</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>692079.3920875895</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>695975.2361875896</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>737715.2068875895</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>718714.9567875896</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>683888.3593875896</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>637842.7385875896</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>601200.9706875897</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>552869.5232875898</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>504072.0639875898</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>480730.33618759</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>480730.33618759</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>519830.90328759</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>465908.88308759</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>454610.81578759</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>590956.34908759</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>547383.48188759</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>579339.60228759</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>535440.47278759</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>574089.01138759</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>531983.44748759</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>502466.92588759</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>548496.1378875901</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>490844.2992875901</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>532996.8573875901</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-400170.5607124097</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-354832.4880124097</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-405430.1741124097</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-492467.4624124097</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-553477.0643124096</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-521727.2251124096</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-490987.5603124097</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-490987.5603124097</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-541151.8050124097</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-879722.9541124095</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-836518.6775124095</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-790370.0198124095</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-790370.0198124095</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-1203928.141743753</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-1241727.873643753</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-1280454.464843753</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-1242850.847943753</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-1286404.035643752</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-1241926.247543752</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-1280474.102443752</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-1246874.257743752</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-1554446.625743752</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -26026,11 +26026,17 @@
         <v>-3102216.977143752</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>2.094</v>
+      </c>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26059,11 +26065,17 @@
         <v>-2857581.652043752</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>2.092</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26096,7 +26108,11 @@
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26141,17 @@
         <v>-2945642.834728682</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26158,11 +26180,17 @@
         <v>-2960158.987628683</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>2.096</v>
+      </c>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26191,11 +26219,17 @@
         <v>-2929444.585728683</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I782" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26224,11 +26258,17 @@
         <v>-2972542.873728683</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I783" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26257,11 +26297,17 @@
         <v>-2917946.245728683</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I784" t="n">
+        <v>2.093</v>
+      </c>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26290,11 +26336,17 @@
         <v>-2990947.006428683</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
-      </c>
-      <c r="I785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I785" t="n">
+        <v>2.096</v>
+      </c>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26323,11 +26375,17 @@
         <v>-3035736.989428683</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
-      </c>
-      <c r="I786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I786" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26414,17 @@
         <v>-3035736.989428683</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>2.09</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26457,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26422,11 +26490,17 @@
         <v>-2991497.294128683</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
-      </c>
-      <c r="I789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I789" t="n">
+        <v>2.09</v>
+      </c>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26455,11 +26529,17 @@
         <v>-3028988.279828683</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
-      </c>
-      <c r="I790" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I790" t="n">
+        <v>2.094</v>
+      </c>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26488,11 +26568,17 @@
         <v>-2779927.781428683</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
-      </c>
-      <c r="I791" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I791" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26611,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26648,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +26685,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +26722,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26653,11 +26755,17 @@
         <v>-2790850.039128683</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
-      </c>
-      <c r="I796" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I796" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26686,11 +26794,17 @@
         <v>-2749163.736828683</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
-      </c>
-      <c r="I797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I797" t="n">
+        <v>2.094</v>
+      </c>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26719,11 +26833,17 @@
         <v>-2792373.234928683</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
-      </c>
-      <c r="I798" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I798" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26752,11 +26872,17 @@
         <v>-2792373.234928683</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
-      </c>
-      <c r="I799" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I799" t="n">
+        <v>2.088</v>
+      </c>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26785,11 +26911,17 @@
         <v>-2738942.569228683</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
-      </c>
-      <c r="I800" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I800" t="n">
+        <v>2.088</v>
+      </c>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +26950,17 @@
         <v>-2738942.569228683</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
-      </c>
-      <c r="I801" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I801" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26851,11 +26989,17 @@
         <v>-2762114.671728683</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
-      </c>
-      <c r="I802" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I802" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26884,11 +27028,17 @@
         <v>-2697881.869928683</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>2.084</v>
+      </c>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26917,11 +27067,17 @@
         <v>-2719735.843628683</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
-      </c>
-      <c r="I804" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I804" t="n">
+        <v>2.088</v>
+      </c>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26950,11 +27106,17 @@
         <v>-2719735.843628683</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
-      </c>
-      <c r="I805" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I805" t="n">
+        <v>2.084</v>
+      </c>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26983,11 +27145,17 @@
         <v>-2673968.992928683</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>2.084</v>
+      </c>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27016,11 +27184,17 @@
         <v>-2719359.755328683</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>2.088</v>
+      </c>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27049,11 +27223,17 @@
         <v>-2679316.688428683</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>2.081</v>
+      </c>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27082,15 +27262,17 @@
         <v>-2701062.322128683</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I809" t="n">
         <v>2.083</v>
       </c>
-      <c r="J809" t="n">
-        <v>2.083</v>
-      </c>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,15 +27301,15 @@
         <v>-2655411.617728683</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L810" t="n">
@@ -27158,15 +27340,15 @@
         <v>-2843271.534228683</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L811" t="n">
@@ -27197,12 +27379,12 @@
         <v>-2545743.513328683</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27236,14 +27418,12 @@
         <v>-2508160.523028683</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I813" t="n">
         <v>2.082</v>
       </c>
-      <c r="J813" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27277,12 +27457,12 @@
         <v>-2552830.594728683</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27316,12 +27496,12 @@
         <v>-2509108.865428683</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27355,12 +27535,12 @@
         <v>-2471630.140828684</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27394,12 +27574,12 @@
         <v>-2511692.834928683</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27433,12 +27613,12 @@
         <v>-2511692.834928683</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
         <v>2.083</v>
       </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27472,12 +27652,12 @@
         <v>-2464518.658328684</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
         <v>2.083</v>
       </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27511,12 +27691,12 @@
         <v>-2511521.884828683</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27550,12 +27730,12 @@
         <v>-2487769.426328683</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
         <v>2.083</v>
       </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27589,12 +27769,12 @@
         <v>-2523326.781328683</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27628,14 +27808,12 @@
         <v>-2456703.746128683</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I823" t="n">
         <v>2.083</v>
       </c>
-      <c r="J823" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27669,14 +27847,12 @@
         <v>-2503704.015428683</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>2.095</v>
       </c>
-      <c r="J824" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27710,14 +27886,12 @@
         <v>-2472880.848028683</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I825" t="n">
         <v>2.079</v>
       </c>
-      <c r="J825" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27751,14 +27925,12 @@
         <v>-2514439.194128683</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I826" t="n">
         <v>2.091</v>
       </c>
-      <c r="J826" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27792,14 +27964,12 @@
         <v>-2558354.748728683</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I827" t="n">
         <v>2.088</v>
       </c>
-      <c r="J827" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27833,12 +28003,12 @@
         <v>-2528075.047128683</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27872,12 +28042,12 @@
         <v>-2485430.422428683</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27911,12 +28081,12 @@
         <v>-2537883.097328683</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27950,12 +28120,12 @@
         <v>-2558973.590628684</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27989,12 +28159,12 @@
         <v>-2497581.483128684</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28028,12 +28198,12 @@
         <v>-2519187.533628684</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28067,12 +28237,12 @@
         <v>-2564465.731828684</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28106,12 +28276,12 @@
         <v>-2498654.291928683</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28145,12 +28315,12 @@
         <v>-2421700.398328683</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I836" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28184,12 +28354,12 @@
         <v>-2378092.978628683</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I837" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28223,12 +28393,12 @@
         <v>-2427684.982228683</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28262,12 +28432,12 @@
         <v>-2463089.421728683</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28301,12 +28471,12 @@
         <v>-2420646.920928683</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28340,12 +28510,12 @@
         <v>-2477653.445328683</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28379,12 +28549,12 @@
         <v>-2417157.487328683</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28418,12 +28588,12 @@
         <v>-2441997.108028683</v>
       </c>
       <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28457,12 +28627,12 @@
         <v>-2404211.787028683</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28496,12 +28666,12 @@
         <v>-2357732.000028683</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28535,12 +28705,12 @@
         <v>-2394906.296428683</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28574,12 +28744,12 @@
         <v>-2345319.912128683</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28613,12 +28783,12 @@
         <v>-2374704.153228683</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28652,12 +28822,12 @@
         <v>-2393631.379228683</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28691,12 +28861,12 @@
         <v>-2449924.638628683</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28730,12 +28900,12 @@
         <v>-2407807.664028683</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28772,9 +28942,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28808,12 +28976,12 @@
         <v>-2391241.778528683</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>2.079</v>
+      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28850,9 +29018,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28886,12 +29052,12 @@
         <v>-2428708.618228683</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28925,12 +29091,12 @@
         <v>-2473211.216628683</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28964,12 +29130,12 @@
         <v>-2426670.910528683</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29003,12 +29169,12 @@
         <v>-2482863.269028683</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29042,12 +29208,12 @@
         <v>-2439648.230028683</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29084,9 +29250,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29123,9 +29287,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29162,9 +29324,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29201,9 +29361,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29240,9 +29398,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29276,12 +29432,12 @@
         <v>-2418028.121228683</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29318,9 +29474,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29354,12 +29508,12 @@
         <v>-2422972.730928683</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
         <v>2.083</v>
       </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29393,12 +29547,12 @@
         <v>-2473342.081528683</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>2.092</v>
+      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29432,12 +29586,12 @@
         <v>-2420541.108528683</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29471,12 +29625,12 @@
         <v>-2445529.718828683</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29510,12 +29664,12 @@
         <v>-2445529.718828683</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29552,9 +29706,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29588,12 +29740,12 @@
         <v>-2532498.718528683</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29627,12 +29779,12 @@
         <v>-2490545.409928683</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29666,12 +29818,12 @@
         <v>-2451427.635928683</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
         <v>2.083</v>
       </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29708,9 +29860,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29744,12 +29894,12 @@
         <v>-2524002.128828682</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
-      </c>
-      <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I877" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29783,12 +29933,12 @@
         <v>-2477529.892528682</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29822,12 +29972,12 @@
         <v>-2477529.892528682</v>
       </c>
       <c r="H879" t="n">
-        <v>0</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I879" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29861,12 +30011,12 @@
         <v>-2491498.640628682</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29900,12 +30050,12 @@
         <v>-2533025.110128683</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I881" t="n">
+        <v>2.094</v>
+      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29939,12 +30089,12 @@
         <v>-2571281.272128683</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I882" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29978,12 +30128,12 @@
         <v>-2530495.908928683</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30017,12 +30167,12 @@
         <v>-2566873.179128683</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30056,12 +30206,12 @@
         <v>-2603017.057328683</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I885" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30095,12 +30245,12 @@
         <v>-2564464.879828683</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30134,12 +30284,12 @@
         <v>-2520975.439328683</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30176,9 +30326,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30215,9 +30363,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30254,9 +30400,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30293,9 +30437,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30332,9 +30474,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30371,9 +30511,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30410,9 +30548,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30449,9 +30585,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30488,9 +30622,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30527,9 +30659,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30566,9 +30696,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30602,12 +30730,12 @@
         <v>-2717013.007328682</v>
       </c>
       <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
         <v>2.083</v>
       </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30641,12 +30769,12 @@
         <v>-2681758.454228682</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30680,12 +30808,12 @@
         <v>-2637723.921628681</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30719,12 +30847,12 @@
         <v>-2676653.247828681</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30761,9 +30889,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30800,9 +30926,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30839,9 +30963,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30875,12 +30997,12 @@
         <v>-2632184.896728681</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30914,12 +31036,12 @@
         <v>-2696738.294928682</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30953,12 +31075,12 @@
         <v>-2675489.496828682</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30995,9 +31117,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31034,9 +31154,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31073,9 +31191,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31112,9 +31228,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31151,9 +31265,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31190,9 +31302,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31229,9 +31339,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31268,9 +31376,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31307,9 +31413,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31346,9 +31450,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31385,9 +31487,7 @@
         <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
-      <c r="J919" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J919" t="inlineStr"/>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31424,9 +31524,7 @@
         <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
-      <c r="J920" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J920" t="inlineStr"/>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31463,9 +31561,7 @@
         <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
-      <c r="J921" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31499,12 +31595,12 @@
         <v>-2943181.318128682</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
-      <c r="J922" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J922" t="inlineStr"/>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31538,12 +31634,12 @@
         <v>-3004801.558828682</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
-      <c r="J923" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J923" t="inlineStr"/>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31577,12 +31673,12 @@
         <v>-2951916.835828682</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="J924" t="inlineStr"/>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31616,12 +31712,12 @@
         <v>-2971783.342428682</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J925" t="inlineStr"/>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31655,12 +31751,12 @@
         <v>-3017260.796128682</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
-      <c r="J926" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="J926" t="inlineStr"/>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31694,12 +31790,12 @@
         <v>-2967673.055528682</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
-      <c r="J927" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J927" t="inlineStr"/>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31733,12 +31829,12 @@
         <v>-2924918.205528682</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
-      <c r="J928" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="J928" t="inlineStr"/>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31772,12 +31868,12 @@
         <v>-2962806.327328682</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
-      <c r="J929" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J929" t="inlineStr"/>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31811,12 +31907,12 @@
         <v>-2962806.327328682</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
-      <c r="J930" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J930" t="inlineStr"/>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31850,12 +31946,12 @@
         <v>-2917872.424528682</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31889,12 +31985,12 @@
         <v>-2951091.443728682</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31928,12 +32024,12 @@
         <v>-2884997.815028682</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31967,12 +32063,12 @@
         <v>-2831587.758228682</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32006,12 +32102,12 @@
         <v>-2872368.843228682</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
-      <c r="J935" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="J935" t="inlineStr"/>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32045,12 +32141,12 @@
         <v>-2889042.529628682</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
-      <c r="J936" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J936" t="inlineStr"/>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32084,12 +32180,12 @@
         <v>-2934409.640528683</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
-      <c r="J937" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J937" t="inlineStr"/>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32123,12 +32219,12 @@
         <v>-2990690.261428683</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
-      <c r="J938" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="J938" t="inlineStr"/>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32162,12 +32258,12 @@
         <v>-2963000.126628682</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
-      <c r="J939" t="n">
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
         <v>2.083</v>
       </c>
+      <c r="J939" t="inlineStr"/>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32201,12 +32297,12 @@
         <v>-2996165.926628682</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
-      <c r="J940" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J940" t="inlineStr"/>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32240,12 +32336,12 @@
         <v>-2996165.926628682</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
-      <c r="J941" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>2.086</v>
+      </c>
+      <c r="J941" t="inlineStr"/>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32279,14 +32375,12 @@
         <v>-3036138.574028682</v>
       </c>
       <c r="H942" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I942" t="n">
         <v>2.086</v>
       </c>
-      <c r="J942" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J942" t="inlineStr"/>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32320,14 +32414,12 @@
         <v>-2990257.519828682</v>
       </c>
       <c r="H943" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I943" t="n">
         <v>2.084</v>
       </c>
-      <c r="J943" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J943" t="inlineStr"/>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32361,12 +32453,12 @@
         <v>-2943595.923228682</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
-      <c r="J944" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>2.089</v>
+      </c>
+      <c r="J944" t="inlineStr"/>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32400,14 +32492,12 @@
         <v>-3002002.828228682</v>
       </c>
       <c r="H945" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I945" t="n">
         <v>2.09</v>
       </c>
-      <c r="J945" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J945" t="inlineStr"/>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32441,14 +32531,12 @@
         <v>-2964968.614428682</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I946" t="n">
         <v>2.084</v>
       </c>
-      <c r="J946" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32482,12 +32570,12 @@
         <v>-2916393.614828682</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
-      <c r="J947" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>2.085</v>
+      </c>
+      <c r="J947" t="inlineStr"/>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32521,12 +32609,12 @@
         <v>-2953390.412628682</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
-      <c r="J948" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="J948" t="inlineStr"/>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32560,12 +32648,12 @@
         <v>-2934325.460828682</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
-      <c r="J949" t="n">
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
         <v>2.083</v>
       </c>
+      <c r="J949" t="inlineStr"/>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32599,14 +32687,12 @@
         <v>-2949036.378428682</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I950" t="n">
         <v>2.089</v>
       </c>
-      <c r="J950" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J950" t="inlineStr"/>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32640,12 +32726,12 @@
         <v>-3006412.157528682</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
-      <c r="J951" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>2.088</v>
+      </c>
+      <c r="J951" t="inlineStr"/>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32679,12 +32765,12 @@
         <v>-2990736.122728682</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
-      <c r="J952" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="J952" t="inlineStr"/>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32718,12 +32804,12 @@
         <v>-2919825.788628682</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
-      <c r="J953" t="n">
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
         <v>2.083</v>
       </c>
+      <c r="J953" t="inlineStr"/>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32757,14 +32843,12 @@
         <v>-2951569.855428682</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I954" t="n">
         <v>2.087</v>
       </c>
-      <c r="J954" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J954" t="inlineStr"/>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32798,14 +32882,12 @@
         <v>-2893397.524528682</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I955" t="n">
         <v>2.083</v>
       </c>
-      <c r="J955" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J955" t="inlineStr"/>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32839,14 +32921,12 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I956" t="n">
         <v>2.091</v>
       </c>
-      <c r="J956" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J956" t="inlineStr"/>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32880,14 +32960,12 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I957" t="n">
         <v>2.087</v>
       </c>
-      <c r="J957" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J957" t="inlineStr"/>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32921,14 +32999,12 @@
         <v>-2941972.336928681</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I958" t="n">
         <v>2.087</v>
       </c>
-      <c r="J958" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J958" t="inlineStr"/>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32962,14 +33038,12 @@
         <v>-2984334.286328681</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I959" t="n">
         <v>2.091</v>
       </c>
-      <c r="J959" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J959" t="inlineStr"/>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33003,14 +33077,12 @@
         <v>-3032793.101628681</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I960" t="n">
         <v>2.087</v>
       </c>
-      <c r="J960" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J960" t="inlineStr"/>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33044,14 +33116,12 @@
         <v>-2981737.680328681</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I961" t="n">
         <v>2.082</v>
       </c>
-      <c r="J961" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J961" t="inlineStr"/>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33085,14 +33155,12 @@
         <v>-3018912.056228681</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I962" t="n">
         <v>2.088</v>
       </c>
-      <c r="J962" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J962" t="inlineStr"/>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33126,14 +33194,12 @@
         <v>-2994591.706528681</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I963" t="n">
         <v>2.082</v>
       </c>
-      <c r="J963" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J963" t="inlineStr"/>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33167,14 +33233,12 @@
         <v>-3034655.459628681</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I964" t="n">
         <v>2.087</v>
       </c>
-      <c r="J964" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33208,14 +33272,12 @@
         <v>-3089832.990528681</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I965" t="n">
         <v>2.085</v>
       </c>
-      <c r="J965" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33249,14 +33311,12 @@
         <v>-3065123.814428681</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I966" t="n">
         <v>2.082</v>
       </c>
-      <c r="J966" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33290,14 +33350,12 @@
         <v>-3108316.250828681</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I967" t="n">
         <v>2.088</v>
       </c>
-      <c r="J967" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33331,14 +33389,12 @@
         <v>-3168607.025128681</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I968" t="n">
         <v>2.086</v>
       </c>
-      <c r="J968" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33372,14 +33428,12 @@
         <v>-3109816.546128681</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I969" t="n">
         <v>2.082</v>
       </c>
-      <c r="J969" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33413,14 +33467,12 @@
         <v>-3125046.357428682</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I970" t="n">
         <v>2.09</v>
       </c>
-      <c r="J970" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33454,14 +33506,12 @@
         <v>-3166087.586028682</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I971" t="n">
         <v>2.089</v>
       </c>
-      <c r="J971" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33495,14 +33545,12 @@
         <v>-3121695.519128682</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I972" t="n">
         <v>2.083</v>
       </c>
-      <c r="J972" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33536,14 +33584,12 @@
         <v>-3121695.519128682</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I973" t="n">
         <v>2.085</v>
       </c>
-      <c r="J973" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33577,14 +33623,12 @@
         <v>-3121695.519128682</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I974" t="n">
         <v>2.085</v>
       </c>
-      <c r="J974" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33618,14 +33662,12 @@
         <v>-3081662.102528682</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I975" t="n">
         <v>2.085</v>
       </c>
-      <c r="J975" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33659,14 +33701,12 @@
         <v>-3100207.789428682</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I976" t="n">
         <v>2.09</v>
       </c>
-      <c r="J976" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33700,14 +33740,12 @@
         <v>-3060720.782128681</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I977" t="n">
         <v>2.085</v>
       </c>
-      <c r="J977" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33741,14 +33779,12 @@
         <v>-3122346.438228681</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I978" t="n">
         <v>2.089</v>
       </c>
-      <c r="J978" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33782,14 +33818,12 @@
         <v>-3122346.438228681</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I979" t="n">
         <v>2.086</v>
       </c>
-      <c r="J979" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33823,14 +33857,12 @@
         <v>-3087403.137828681</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I980" t="n">
         <v>2.086</v>
       </c>
-      <c r="J980" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33864,14 +33896,12 @@
         <v>-3045317.704628681</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I981" t="n">
         <v>2.089</v>
       </c>
-      <c r="J981" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33905,14 +33935,12 @@
         <v>-3097820.627128681</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I982" t="n">
         <v>2.091</v>
       </c>
-      <c r="J982" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33946,14 +33974,12 @@
         <v>-3154600.147128681</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I983" t="n">
         <v>2.089</v>
       </c>
-      <c r="J983" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33987,14 +34013,12 @@
         <v>-3116189.869128681</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I984" t="n">
         <v>2.087</v>
       </c>
-      <c r="J984" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34028,14 +34052,12 @@
         <v>-3116189.869128681</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I985" t="n">
         <v>2.089</v>
       </c>
-      <c r="J985" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34069,14 +34091,12 @@
         <v>-3157675.036928681</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I986" t="n">
         <v>2.089</v>
       </c>
-      <c r="J986" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34110,14 +34130,12 @@
         <v>-3177545.251328681</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I987" t="n">
         <v>2.088</v>
       </c>
-      <c r="J987" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34151,14 +34169,12 @@
         <v>-3177545.251328681</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I988" t="n">
         <v>2.087</v>
       </c>
-      <c r="J988" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34192,14 +34208,12 @@
         <v>-3225153.973728681</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I989" t="n">
         <v>2.087</v>
       </c>
-      <c r="J989" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34233,14 +34247,12 @@
         <v>-3225153.973728681</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I990" t="n">
         <v>2.086</v>
       </c>
-      <c r="J990" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34274,14 +34286,12 @@
         <v>-3185997.117728681</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I991" t="n">
         <v>2.086</v>
       </c>
-      <c r="J991" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34315,14 +34325,12 @@
         <v>-3224673.972828681</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I992" t="n">
         <v>2.087</v>
       </c>
-      <c r="J992" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34356,14 +34364,12 @@
         <v>-3224673.972828681</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I993" t="n">
         <v>2.086</v>
       </c>
-      <c r="J993" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34397,14 +34403,12 @@
         <v>-3224673.972828681</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I994" t="n">
         <v>2.086</v>
       </c>
-      <c r="J994" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34438,14 +34442,12 @@
         <v>-3224673.972828681</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I995" t="n">
         <v>2.086</v>
       </c>
-      <c r="J995" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34479,14 +34481,12 @@
         <v>-3200064.843228681</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I996" t="n">
         <v>2.086</v>
       </c>
-      <c r="J996" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34520,14 +34520,12 @@
         <v>-3200064.843228681</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I997" t="n">
         <v>2.087</v>
       </c>
-      <c r="J997" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34561,14 +34559,12 @@
         <v>-3200064.843228681</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I998" t="n">
         <v>2.087</v>
       </c>
-      <c r="J998" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34602,14 +34598,12 @@
         <v>-3200064.843228681</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I999" t="n">
         <v>2.087</v>
       </c>
-      <c r="J999" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34643,14 +34637,12 @@
         <v>-3262413.01602868</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1000" t="n">
         <v>2.087</v>
       </c>
-      <c r="J1000" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34684,14 +34676,12 @@
         <v>-3237001.27292868</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1001" t="n">
         <v>2.086</v>
       </c>
-      <c r="J1001" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34725,14 +34715,12 @@
         <v>-3282752.15322868</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1002" t="n">
         <v>2.087</v>
       </c>
-      <c r="J1002" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34766,14 +34754,12 @@
         <v>-3047097.21532868</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1003" t="n">
         <v>2.086</v>
       </c>
-      <c r="J1003" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34807,14 +34793,12 @@
         <v>-3111858.36792868</v>
       </c>
       <c r="H1004" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1004" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1004" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34848,14 +34832,12 @@
         <v>-3111858.36792868</v>
       </c>
       <c r="H1005" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1005" t="n">
         <v>2.089</v>
       </c>
-      <c r="J1005" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34889,14 +34871,12 @@
         <v>-3085079.29262868</v>
       </c>
       <c r="H1006" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1006" t="n">
         <v>2.089</v>
       </c>
-      <c r="J1006" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34930,14 +34910,12 @@
         <v>-3117392.65992868</v>
       </c>
       <c r="H1007" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1007" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1007" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34971,14 +34949,12 @@
         <v>-3075206.352828681</v>
       </c>
       <c r="H1008" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1008" t="n">
         <v>2.089</v>
       </c>
-      <c r="J1008" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35012,14 +34988,12 @@
         <v>-3075206.352828681</v>
       </c>
       <c r="H1009" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1009" t="n">
         <v>2.09</v>
       </c>
-      <c r="J1009" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35053,14 +35027,12 @@
         <v>-3066576.352828681</v>
       </c>
       <c r="H1010" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1010" t="n">
         <v>2.09</v>
       </c>
-      <c r="J1010" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35094,14 +35066,12 @@
         <v>-3066576.352828681</v>
       </c>
       <c r="H1011" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1011" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1011" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35135,14 +35105,12 @@
         <v>-3066576.352828681</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1012" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1012" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35176,14 +35144,12 @@
         <v>-3136905.25532868</v>
       </c>
       <c r="H1013" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1013" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1013" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35217,14 +35183,12 @@
         <v>-3130311.25532868</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1014" t="n">
         <v>2.09</v>
       </c>
-      <c r="J1014" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35258,14 +35222,12 @@
         <v>-2941296.78522868</v>
       </c>
       <c r="H1015" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1015" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1015" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35299,14 +35261,12 @@
         <v>-2896760.03492868</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1016" t="n">
         <v>2.095</v>
       </c>
-      <c r="J1016" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35340,14 +35300,10 @@
         <v>-2881062.120628681</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1017" t="n">
-        <v>2.103</v>
-      </c>
-      <c r="J1017" t="n">
-        <v>2.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1017" t="inlineStr"/>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35381,14 +35337,10 @@
         <v>-2935044.366828681</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1018" t="n">
-        <v>2.105</v>
-      </c>
-      <c r="J1018" t="n">
-        <v>2.083</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1018" t="inlineStr"/>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35425,9 +35377,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35464,9 +35414,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35503,9 +35451,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35542,9 +35488,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35581,9 +35525,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35620,9 +35562,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35659,9 +35599,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35698,9 +35636,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35734,12 +35670,12 @@
         <v>-2789718.50272868</v>
       </c>
       <c r="H1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35773,12 +35709,12 @@
         <v>-2735664.89882868</v>
       </c>
       <c r="H1028" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35812,12 +35748,12 @@
         <v>-2698464.57232868</v>
       </c>
       <c r="H1029" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>2.083</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35854,9 +35790,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35893,9 +35827,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35932,9 +35864,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35971,9 +35901,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36010,9 +35938,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36049,9 +35975,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36088,9 +36012,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36127,9 +36049,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36166,9 +36086,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36205,9 +36123,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36244,9 +36160,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36283,9 +36197,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36322,9 +36234,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36361,9 +36271,7 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36400,9 +36308,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36439,9 +36345,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36478,9 +36382,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36517,9 +36419,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36556,9 +36456,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36595,9 +36493,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36634,9 +36530,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36673,9 +36567,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36712,9 +36604,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36751,9 +36641,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36790,9 +36678,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36829,9 +36715,7 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36868,9 +36752,7 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36907,9 +36789,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36946,9 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36985,9 +36863,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37024,9 +36900,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37063,9 +36937,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37102,9 +36974,7 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37141,9 +37011,7 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37180,9 +37048,7 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37219,9 +37085,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37258,9 +37122,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37297,9 +37159,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37336,9 +37196,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37375,9 +37233,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37414,9 +37270,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37453,9 +37307,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37492,9 +37344,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37531,9 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37570,9 +37418,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37609,9 +37455,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37648,9 +37492,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37687,9 +37529,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37726,9 +37566,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37765,9 +37603,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37804,9 +37640,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37843,9 +37677,7 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37882,9 +37714,7 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37921,9 +37751,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37960,9 +37788,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37999,9 +37825,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38038,9 +37862,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38077,9 +37899,7 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38116,9 +37936,7 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38155,9 +37973,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38194,9 +38010,7 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38233,9 +38047,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38272,9 +38084,7 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38311,9 +38121,7 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38350,9 +38158,7 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38389,9 +38195,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38428,9 +38232,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38467,9 +38269,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38506,9 +38306,7 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38545,9 +38343,7 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38584,9 +38380,7 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38623,9 +38417,7 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38662,9 +38454,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38701,9 +38491,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38740,9 +38528,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38779,9 +38565,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38818,9 +38602,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38857,9 +38639,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38896,9 +38676,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38935,9 +38713,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38974,9 +38750,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39013,9 +38787,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39052,9 +38824,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39091,9 +38861,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39130,9 +38898,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39169,9 +38935,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39208,9 +38972,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39247,9 +39009,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39286,9 +39046,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39325,9 +39083,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39364,9 +39120,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39403,9 +39157,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39442,9 +39194,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39481,9 +39231,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39520,9 +39268,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39559,9 +39305,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39598,9 +39342,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39637,9 +39379,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39676,9 +39416,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39715,9 +39453,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39754,9 +39490,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39793,9 +39527,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39832,9 +39564,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39871,9 +39601,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39910,9 +39638,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39949,9 +39675,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39988,9 +39712,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40027,9 +39749,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40066,9 +39786,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40105,9 +39823,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40144,9 +39860,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40183,9 +39897,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40222,9 +39934,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40261,9 +39971,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40300,9 +40008,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40339,9 +40045,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40378,9 +40082,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40417,9 +40119,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40456,9 +40156,7 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40495,9 +40193,7 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40534,9 +40230,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40573,9 +40267,7 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40612,9 +40304,7 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40651,9 +40341,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40690,9 +40378,7 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40729,9 +40415,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40768,9 +40452,7 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40807,9 +40489,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40846,9 +40526,7 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40885,9 +40563,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40924,9 +40600,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40963,9 +40637,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41002,9 +40674,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41041,9 +40711,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41080,9 +40748,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41119,9 +40785,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41158,9 +40822,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41197,9 +40859,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41236,9 +40896,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41275,9 +40933,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41314,9 +40970,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41353,9 +41007,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41392,9 +41044,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41431,9 +41081,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41470,9 +41118,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41509,9 +41155,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41548,9 +41192,7 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41587,9 +41229,7 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41626,9 +41266,7 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41665,9 +41303,7 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41704,9 +41340,7 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41743,9 +41377,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41782,9 +41414,7 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41821,9 +41451,7 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41860,9 +41488,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41899,9 +41525,7 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41938,9 +41562,7 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41977,9 +41599,7 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42016,9 +41636,7 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42055,9 +41673,7 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42094,9 +41710,7 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42133,9 +41747,7 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42172,9 +41784,7 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42211,9 +41821,7 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42250,9 +41858,7 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42289,9 +41895,7 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42328,9 +41932,7 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42367,9 +41969,7 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42406,9 +42006,7 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42445,9 +42043,7 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42484,9 +42080,7 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42523,9 +42117,7 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42562,9 +42154,7 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42601,9 +42191,7 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42640,9 +42228,7 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42679,9 +42265,7 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42718,9 +42302,7 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42757,9 +42339,7 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42796,9 +42376,7 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42835,9 +42413,7 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42874,9 +42450,7 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42913,9 +42487,7 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42952,9 +42524,7 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42991,9 +42561,7 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43030,9 +42598,7 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43069,9 +42635,7 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43108,9 +42672,7 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43147,9 +42709,7 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43186,9 +42746,7 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43225,9 +42783,7 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43264,9 +42820,7 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43303,9 +42857,7 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43342,9 +42894,7 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43381,9 +42931,7 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43420,9 +42968,7 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43459,9 +43005,7 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43498,9 +43042,7 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43537,9 +43079,7 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43576,9 +43116,7 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43615,9 +43153,7 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43654,9 +43190,7 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43693,9 +43227,7 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43732,9 +43264,7 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43771,9 +43301,7 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43810,9 +43338,7 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43849,9 +43375,7 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43888,9 +43412,7 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43927,9 +43449,7 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43966,9 +43486,7 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44005,9 +43523,7 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44044,9 +43560,7 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44083,9 +43597,7 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44122,9 +43634,7 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44161,9 +43671,7 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44200,9 +43708,7 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44239,9 +43745,7 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44278,9 +43782,7 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44317,9 +43819,7 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44356,9 +43856,7 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44395,9 +43893,7 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44434,9 +43930,7 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44473,9 +43967,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44512,9 +44004,7 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44551,9 +44041,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44590,9 +44078,7 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44629,9 +44115,7 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44668,9 +44152,7 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44707,9 +44189,7 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44746,9 +44226,7 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44785,9 +44263,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44824,9 +44300,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44863,9 +44337,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44902,9 +44374,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44941,9 +44411,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44980,9 +44448,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45019,9 +44485,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45058,9 +44522,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45097,9 +44559,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45136,9 +44596,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45175,9 +44633,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45214,9 +44670,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45253,9 +44707,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45292,9 +44744,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45331,9 +44781,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45370,9 +44818,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45409,9 +44855,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45448,9 +44892,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45487,9 +44929,7 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45526,9 +44966,7 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>2.083</v>
-      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -45540,6 +44978,6 @@
       <c r="M1278" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest DAC.xlsx
+++ b/BackTest/2020-01-14 BackTest DAC.xlsx
@@ -451,7 +451,7 @@
         <v>416740.4520809524</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>491240.4520809524</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>761303.1977809523</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>446301.2086809523</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>446301.2086809523</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>414324.7549809523</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>470433.3008809523</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>424066.7618809523</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>632131.6672809522</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>679832.2641809522</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>632691.5786809522</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>668476.8524809522</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>1003166.473280952</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>872587.0359875889</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1006676.048187589</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>948668.6037875889</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>780631.8648875889</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>637471.1346875889</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>686074.4918875889</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>844912.9626875889</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>785359.4351875889</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>934244.370187589</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>918917.888287589</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1444363.063187589</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1425363.738187589</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1468788.931987589</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1518378.717787589</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1476353.089987589</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>965505.8290875891</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1006884.808687589</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>961789.957587589</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>981599.6293875891</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>1048316.430187589</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>1071626.689187589</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>1001239.861187589</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1019024.994287589</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>983799.9164875891</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>949981.2463875891</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>988984.2615875892</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>934422.8436875892</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>933015.7455875892</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>882081.4877875892</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>874099.2472875892</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>810713.4660875893</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-1241727.873643753</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-1729474.690643753</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-1726417.539443753</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-1766187.581443753</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -27379,11 +27379,17 @@
         <v>-2511692.834928683</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>2.083</v>
+      </c>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27422,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27459,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27496,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27533,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27570,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +27603,17 @@
         <v>-2503704.015428683</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>2.095</v>
+      </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27610,11 +27642,17 @@
         <v>-2472880.848028683</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>2.079</v>
+      </c>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +27681,17 @@
         <v>-2514439.194128683</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27724,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +27757,17 @@
         <v>-2528075.047128683</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>2.08</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27742,11 +27796,17 @@
         <v>-2485430.422428683</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>2.087</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +27839,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +27876,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27841,11 +27909,17 @@
         <v>-2497581.483128684</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>2.086</v>
+      </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +27948,17 @@
         <v>-2519187.533628684</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>2.092</v>
+      </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +27991,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +28024,17 @@
         <v>-2498654.291928683</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>2.085</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28067,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28104,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +28141,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28178,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +28215,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +28252,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28289,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28326,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28363,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28400,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28437,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28340,7 +28474,11 @@
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28511,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28548,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28585,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28472,7 +28622,11 @@
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28659,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28696,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28571,7 +28733,11 @@
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28770,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28807,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28670,7 +28844,11 @@
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +28881,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +28918,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +28955,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +28992,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +29029,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +29066,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28901,7 +29103,11 @@
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29140,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28967,7 +29177,11 @@
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29214,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29033,7 +29251,11 @@
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29066,7 +29288,11 @@
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29325,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29362,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29399,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29198,7 +29436,11 @@
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29473,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29264,7 +29510,11 @@
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29297,7 +29547,11 @@
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29330,7 +29584,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29363,7 +29621,11 @@
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29396,7 +29658,11 @@
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29429,7 +29695,11 @@
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29462,7 +29732,11 @@
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29495,7 +29769,11 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29528,7 +29806,11 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +29843,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +29880,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29627,7 +29917,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29660,7 +29954,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +29991,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +30028,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29759,7 +30065,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30102,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30139,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +30176,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30213,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30250,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +30287,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +30324,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +30361,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30398,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30435,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30472,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30509,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30546,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30583,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30620,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30657,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30694,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30731,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30768,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30805,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +30842,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +30879,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +30916,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +30953,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +30990,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +31027,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +31064,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +31101,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +31138,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +31175,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +31212,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +31249,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +31286,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +31323,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +31360,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31397,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +31434,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31471,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +31508,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +31545,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31108,11 +31578,17 @@
         <v>-2917872.424528682</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>2.082</v>
+      </c>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +31621,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31174,11 +31654,17 @@
         <v>-2884997.815028682</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>2.082</v>
+      </c>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +31697,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31240,11 +31730,17 @@
         <v>-2872368.843228682</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31273,11 +31769,17 @@
         <v>-2889042.529628682</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>2.09</v>
+      </c>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31306,11 +31808,17 @@
         <v>-2934409.640528683</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31339,11 +31847,17 @@
         <v>-2990690.261428683</v>
       </c>
       <c r="H938" t="n">
-        <v>0</v>
-      </c>
-      <c r="I938" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I938" t="n">
+        <v>2.084</v>
+      </c>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31372,11 +31886,17 @@
         <v>-2963000.126628682</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>2.083</v>
+      </c>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +31929,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31438,11 +31962,17 @@
         <v>-2996165.926628682</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>2.086</v>
+      </c>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31471,11 +32001,17 @@
         <v>-3036138.574028682</v>
       </c>
       <c r="H942" t="n">
-        <v>0</v>
-      </c>
-      <c r="I942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I942" t="n">
+        <v>2.086</v>
+      </c>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31504,11 +32040,17 @@
         <v>-2990257.519828682</v>
       </c>
       <c r="H943" t="n">
-        <v>0</v>
-      </c>
-      <c r="I943" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I943" t="n">
+        <v>2.084</v>
+      </c>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31537,11 +32079,17 @@
         <v>-2943595.923228682</v>
       </c>
       <c r="H944" t="n">
-        <v>0</v>
-      </c>
-      <c r="I944" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I944" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31570,11 +32118,17 @@
         <v>-3002002.828228682</v>
       </c>
       <c r="H945" t="n">
-        <v>0</v>
-      </c>
-      <c r="I945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I945" t="n">
+        <v>2.09</v>
+      </c>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31603,11 +32157,17 @@
         <v>-2964968.614428682</v>
       </c>
       <c r="H946" t="n">
-        <v>0</v>
-      </c>
-      <c r="I946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I946" t="n">
+        <v>2.084</v>
+      </c>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31636,11 +32196,17 @@
         <v>-2916393.614828682</v>
       </c>
       <c r="H947" t="n">
-        <v>0</v>
-      </c>
-      <c r="I947" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I947" t="n">
+        <v>2.085</v>
+      </c>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +32235,17 @@
         <v>-2953390.412628682</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>2.09</v>
+      </c>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31702,11 +32274,17 @@
         <v>-2934325.460828682</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>2.083</v>
+      </c>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +32313,17 @@
         <v>-2949036.378428682</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>2.089</v>
+      </c>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31768,11 +32352,17 @@
         <v>-3006412.157528682</v>
       </c>
       <c r="H951" t="n">
-        <v>0</v>
-      </c>
-      <c r="I951" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I951" t="n">
+        <v>2.088</v>
+      </c>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31801,11 +32391,17 @@
         <v>-2990736.122728682</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>2.082</v>
+      </c>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31834,11 +32430,17 @@
         <v>-2919825.788628682</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>2.083</v>
+      </c>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31867,11 +32469,17 @@
         <v>-2951569.855428682</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>2.087</v>
+      </c>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31900,11 +32508,17 @@
         <v>-2893397.524528682</v>
       </c>
       <c r="H955" t="n">
-        <v>0</v>
-      </c>
-      <c r="I955" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I955" t="n">
+        <v>2.083</v>
+      </c>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +32547,17 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31966,11 +32586,17 @@
         <v>-2972557.907328682</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>2.087</v>
+      </c>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -31999,11 +32625,17 @@
         <v>-2941972.336928681</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
-      </c>
-      <c r="I958" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I958" t="n">
+        <v>2.087</v>
+      </c>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32032,11 +32664,17 @@
         <v>-2984334.286328681</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
-      </c>
-      <c r="I959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I959" t="n">
+        <v>2.091</v>
+      </c>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32065,11 +32703,17 @@
         <v>-3032793.101628681</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
-      </c>
-      <c r="I960" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I960" t="n">
+        <v>2.087</v>
+      </c>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32098,11 +32742,17 @@
         <v>-2981737.680328681</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
-      </c>
-      <c r="I961" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I961" t="n">
+        <v>2.082</v>
+      </c>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32131,11 +32781,17 @@
         <v>-3018912.056228681</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
-      </c>
-      <c r="I962" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I962" t="n">
+        <v>2.088</v>
+      </c>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32169,10 +32825,12 @@
       <c r="I963" t="n">
         <v>2.082</v>
       </c>
-      <c r="J963" t="n">
-        <v>2.082</v>
-      </c>
-      <c r="K963" t="inlineStr"/>
+      <c r="J963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32201,15 +32859,15 @@
         <v>-3034655.459628681</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="n">
-        <v>2.082</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="J964" t="inlineStr"/>
       <c r="K964" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L964" t="n">
@@ -32245,12 +32903,10 @@
       <c r="I965" t="n">
         <v>2.085</v>
       </c>
-      <c r="J965" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L965" t="n">
@@ -32286,9 +32942,7 @@
       <c r="I966" t="n">
         <v>2.082</v>
       </c>
-      <c r="J966" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32327,9 +32981,7 @@
       <c r="I967" t="n">
         <v>2.088</v>
       </c>
-      <c r="J967" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32368,9 +33020,7 @@
       <c r="I968" t="n">
         <v>2.086</v>
       </c>
-      <c r="J968" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32409,9 +33059,7 @@
       <c r="I969" t="n">
         <v>2.082</v>
       </c>
-      <c r="J969" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32450,9 +33098,7 @@
       <c r="I970" t="n">
         <v>2.09</v>
       </c>
-      <c r="J970" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32491,9 +33137,7 @@
       <c r="I971" t="n">
         <v>2.089</v>
       </c>
-      <c r="J971" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32532,9 +33176,7 @@
       <c r="I972" t="n">
         <v>2.083</v>
       </c>
-      <c r="J972" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32573,9 +33215,7 @@
       <c r="I973" t="n">
         <v>2.085</v>
       </c>
-      <c r="J973" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32614,9 +33254,7 @@
       <c r="I974" t="n">
         <v>2.085</v>
       </c>
-      <c r="J974" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32655,9 +33293,7 @@
       <c r="I975" t="n">
         <v>2.085</v>
       </c>
-      <c r="J975" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32696,9 +33332,7 @@
       <c r="I976" t="n">
         <v>2.09</v>
       </c>
-      <c r="J976" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32737,9 +33371,7 @@
       <c r="I977" t="n">
         <v>2.085</v>
       </c>
-      <c r="J977" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32778,9 +33410,7 @@
       <c r="I978" t="n">
         <v>2.089</v>
       </c>
-      <c r="J978" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32819,9 +33449,7 @@
       <c r="I979" t="n">
         <v>2.086</v>
       </c>
-      <c r="J979" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32860,9 +33488,7 @@
       <c r="I980" t="n">
         <v>2.086</v>
       </c>
-      <c r="J980" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32901,9 +33527,7 @@
       <c r="I981" t="n">
         <v>2.089</v>
       </c>
-      <c r="J981" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32942,9 +33566,7 @@
       <c r="I982" t="n">
         <v>2.091</v>
       </c>
-      <c r="J982" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32983,9 +33605,7 @@
       <c r="I983" t="n">
         <v>2.089</v>
       </c>
-      <c r="J983" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33024,9 +33644,7 @@
       <c r="I984" t="n">
         <v>2.087</v>
       </c>
-      <c r="J984" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33065,9 +33683,7 @@
       <c r="I985" t="n">
         <v>2.089</v>
       </c>
-      <c r="J985" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33106,9 +33722,7 @@
       <c r="I986" t="n">
         <v>2.089</v>
       </c>
-      <c r="J986" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33147,9 +33761,7 @@
       <c r="I987" t="n">
         <v>2.088</v>
       </c>
-      <c r="J987" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33188,9 +33800,7 @@
       <c r="I988" t="n">
         <v>2.087</v>
       </c>
-      <c r="J988" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33229,9 +33839,7 @@
       <c r="I989" t="n">
         <v>2.087</v>
       </c>
-      <c r="J989" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33270,9 +33878,7 @@
       <c r="I990" t="n">
         <v>2.086</v>
       </c>
-      <c r="J990" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33311,9 +33917,7 @@
       <c r="I991" t="n">
         <v>2.086</v>
       </c>
-      <c r="J991" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33352,9 +33956,7 @@
       <c r="I992" t="n">
         <v>2.087</v>
       </c>
-      <c r="J992" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33393,9 +33995,7 @@
       <c r="I993" t="n">
         <v>2.086</v>
       </c>
-      <c r="J993" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33434,9 +34034,7 @@
       <c r="I994" t="n">
         <v>2.086</v>
       </c>
-      <c r="J994" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33475,9 +34073,7 @@
       <c r="I995" t="n">
         <v>2.086</v>
       </c>
-      <c r="J995" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33516,9 +34112,7 @@
       <c r="I996" t="n">
         <v>2.086</v>
       </c>
-      <c r="J996" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33557,9 +34151,7 @@
       <c r="I997" t="n">
         <v>2.087</v>
       </c>
-      <c r="J997" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33598,9 +34190,7 @@
       <c r="I998" t="n">
         <v>2.087</v>
       </c>
-      <c r="J998" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33639,9 +34229,7 @@
       <c r="I999" t="n">
         <v>2.087</v>
       </c>
-      <c r="J999" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33680,9 +34268,7 @@
       <c r="I1000" t="n">
         <v>2.087</v>
       </c>
-      <c r="J1000" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33721,9 +34307,7 @@
       <c r="I1001" t="n">
         <v>2.086</v>
       </c>
-      <c r="J1001" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33762,9 +34346,7 @@
       <c r="I1002" t="n">
         <v>2.087</v>
       </c>
-      <c r="J1002" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33803,9 +34385,7 @@
       <c r="I1003" t="n">
         <v>2.086</v>
       </c>
-      <c r="J1003" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33844,9 +34424,7 @@
       <c r="I1004" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1004" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33885,9 +34463,7 @@
       <c r="I1005" t="n">
         <v>2.089</v>
       </c>
-      <c r="J1005" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33926,9 +34502,7 @@
       <c r="I1006" t="n">
         <v>2.089</v>
       </c>
-      <c r="J1006" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33967,9 +34541,7 @@
       <c r="I1007" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1007" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34008,9 +34580,7 @@
       <c r="I1008" t="n">
         <v>2.089</v>
       </c>
-      <c r="J1008" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34049,9 +34619,7 @@
       <c r="I1009" t="n">
         <v>2.09</v>
       </c>
-      <c r="J1009" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34090,9 +34658,7 @@
       <c r="I1010" t="n">
         <v>2.09</v>
       </c>
-      <c r="J1010" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34131,9 +34697,7 @@
       <c r="I1011" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1011" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34172,9 +34736,7 @@
       <c r="I1012" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1012" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34213,9 +34775,7 @@
       <c r="I1013" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1013" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34254,9 +34814,7 @@
       <c r="I1014" t="n">
         <v>2.09</v>
       </c>
-      <c r="J1014" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34295,9 +34853,7 @@
       <c r="I1015" t="n">
         <v>2.091</v>
       </c>
-      <c r="J1015" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34331,12 +34887,12 @@
         <v>-2896760.03492868</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>2.082</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34373,9 +34929,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34412,9 +34966,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34451,9 +35003,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34490,9 +35040,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34529,9 +35077,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34568,9 +35114,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34607,9 +35151,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34646,9 +35188,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34685,9 +35225,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34724,9 +35262,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34763,9 +35299,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34802,9 +35336,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34841,9 +35373,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34880,9 +35410,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34919,9 +35447,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34958,9 +35484,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34997,9 +35521,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35036,9 +35558,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35075,9 +35595,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35114,9 +35632,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35153,9 +35669,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35192,9 +35706,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35231,9 +35743,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35270,9 +35780,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35309,9 +35817,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35348,9 +35854,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35387,9 +35891,7 @@
         <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35426,9 +35928,7 @@
         <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1044" t="inlineStr"/>
       <c r="K1044" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35465,9 +35965,7 @@
         <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1045" t="inlineStr"/>
       <c r="K1045" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35504,9 +36002,7 @@
         <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1046" t="inlineStr"/>
       <c r="K1046" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35543,9 +36039,7 @@
         <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1047" t="inlineStr"/>
       <c r="K1047" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35582,9 +36076,7 @@
         <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1048" t="inlineStr"/>
       <c r="K1048" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35621,9 +36113,7 @@
         <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1049" t="inlineStr"/>
       <c r="K1049" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35660,9 +36150,7 @@
         <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1050" t="inlineStr"/>
       <c r="K1050" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35699,9 +36187,7 @@
         <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1051" t="inlineStr"/>
       <c r="K1051" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35738,9 +36224,7 @@
         <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1052" t="inlineStr"/>
       <c r="K1052" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35777,9 +36261,7 @@
         <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1053" t="inlineStr"/>
       <c r="K1053" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35816,9 +36298,7 @@
         <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1054" t="inlineStr"/>
       <c r="K1054" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35855,9 +36335,7 @@
         <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1055" t="inlineStr"/>
       <c r="K1055" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35894,9 +36372,7 @@
         <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1056" t="inlineStr"/>
       <c r="K1056" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35933,9 +36409,7 @@
         <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1057" t="inlineStr"/>
       <c r="K1057" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35972,9 +36446,7 @@
         <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1058" t="inlineStr"/>
       <c r="K1058" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36011,9 +36483,7 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1059" t="inlineStr"/>
       <c r="K1059" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36050,9 +36520,7 @@
         <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1060" t="inlineStr"/>
       <c r="K1060" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36089,9 +36557,7 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1061" t="inlineStr"/>
       <c r="K1061" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36128,9 +36594,7 @@
         <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1062" t="inlineStr"/>
       <c r="K1062" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36167,9 +36631,7 @@
         <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1063" t="inlineStr"/>
       <c r="K1063" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36206,9 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1064" t="inlineStr"/>
       <c r="K1064" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36245,9 +36705,7 @@
         <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1065" t="inlineStr"/>
       <c r="K1065" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36284,9 +36742,7 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1066" t="inlineStr"/>
       <c r="K1066" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36323,9 +36779,7 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1067" t="inlineStr"/>
       <c r="K1067" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36362,9 +36816,7 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1068" t="inlineStr"/>
       <c r="K1068" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36401,9 +36853,7 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1069" t="inlineStr"/>
       <c r="K1069" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36440,9 +36890,7 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1070" t="inlineStr"/>
       <c r="K1070" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36479,9 +36927,7 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1071" t="inlineStr"/>
       <c r="K1071" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36518,9 +36964,7 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1072" t="inlineStr"/>
       <c r="K1072" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36557,9 +37001,7 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1073" t="inlineStr"/>
       <c r="K1073" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36596,9 +37038,7 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1074" t="inlineStr"/>
       <c r="K1074" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36635,9 +37075,7 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1075" t="inlineStr"/>
       <c r="K1075" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36674,9 +37112,7 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1076" t="inlineStr"/>
       <c r="K1076" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36713,9 +37149,7 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1077" t="inlineStr"/>
       <c r="K1077" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36752,9 +37186,7 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1078" t="inlineStr"/>
       <c r="K1078" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36791,9 +37223,7 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1079" t="inlineStr"/>
       <c r="K1079" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36830,9 +37260,7 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1080" t="inlineStr"/>
       <c r="K1080" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36869,9 +37297,7 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1081" t="inlineStr"/>
       <c r="K1081" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36908,9 +37334,7 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1082" t="inlineStr"/>
       <c r="K1082" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36947,9 +37371,7 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1083" t="inlineStr"/>
       <c r="K1083" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36986,9 +37408,7 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1084" t="inlineStr"/>
       <c r="K1084" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37025,9 +37445,7 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1085" t="inlineStr"/>
       <c r="K1085" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37064,9 +37482,7 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1086" t="inlineStr"/>
       <c r="K1086" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37103,9 +37519,7 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1087" t="inlineStr"/>
       <c r="K1087" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37142,9 +37556,7 @@
         <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1088" t="inlineStr"/>
       <c r="K1088" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37181,9 +37593,7 @@
         <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1089" t="inlineStr"/>
       <c r="K1089" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37220,9 +37630,7 @@
         <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37259,9 +37667,7 @@
         <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37298,9 +37704,7 @@
         <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
-      <c r="J1092" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37337,9 +37741,7 @@
         <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
-      <c r="J1093" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37376,9 +37778,7 @@
         <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
-      <c r="J1094" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37415,9 +37815,7 @@
         <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
-      <c r="J1095" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37454,9 +37852,7 @@
         <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
-      <c r="J1096" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37493,9 +37889,7 @@
         <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
-      <c r="J1097" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37532,9 +37926,7 @@
         <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
-      <c r="J1098" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37571,9 +37963,7 @@
         <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
-      <c r="J1099" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37610,9 +38000,7 @@
         <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
-      <c r="J1100" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37649,9 +38037,7 @@
         <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
-      <c r="J1101" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37688,9 +38074,7 @@
         <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
-      <c r="J1102" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37727,9 +38111,7 @@
         <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
-      <c r="J1103" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37766,9 +38148,7 @@
         <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37805,9 +38185,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37844,9 +38222,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37883,9 +38259,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37922,9 +38296,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37961,9 +38333,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38000,9 +38370,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38039,9 +38407,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38078,9 +38444,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38117,9 +38481,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38156,9 +38518,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38195,9 +38555,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38234,9 +38592,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38273,9 +38629,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38312,9 +38666,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38351,9 +38703,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38390,9 +38740,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38429,9 +38777,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38468,9 +38814,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38507,9 +38851,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38546,9 +38888,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38585,9 +38925,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38624,9 +38962,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38663,9 +38999,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38702,9 +39036,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38741,9 +39073,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38780,9 +39110,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38819,9 +39147,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38858,9 +39184,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38897,9 +39221,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38936,9 +39258,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38975,9 +39295,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39014,9 +39332,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39053,9 +39369,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39092,9 +39406,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39131,9 +39443,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39170,9 +39480,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39209,9 +39517,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39248,9 +39554,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39287,9 +39591,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39326,9 +39628,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39365,9 +39665,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39404,9 +39702,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39443,9 +39739,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39482,9 +39776,7 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39521,9 +39813,7 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39560,9 +39850,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39599,9 +39887,7 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39638,9 +39924,7 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39677,9 +39961,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39716,9 +39998,7 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39755,9 +40035,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39794,9 +40072,7 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39833,9 +40109,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39872,9 +40146,7 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39911,9 +40183,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39950,9 +40220,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39989,9 +40257,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40028,9 +40294,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40067,9 +40331,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40106,9 +40368,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40145,9 +40405,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40184,9 +40442,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40223,9 +40479,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40262,9 +40516,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40301,9 +40553,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40340,9 +40590,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40379,9 +40627,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40418,9 +40664,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40457,9 +40701,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40496,9 +40738,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40535,9 +40775,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40574,9 +40812,7 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40613,9 +40849,7 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40652,9 +40886,7 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40691,9 +40923,7 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40730,9 +40960,7 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40769,9 +40997,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40808,9 +41034,7 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40847,9 +41071,7 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40886,9 +41108,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40925,9 +41145,7 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40964,9 +41182,7 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41003,9 +41219,7 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41042,9 +41256,7 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41081,9 +41293,7 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41120,9 +41330,7 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41159,9 +41367,7 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41198,9 +41404,7 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41237,9 +41441,7 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41276,9 +41478,7 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41315,9 +41515,7 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41354,9 +41552,7 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41393,9 +41589,7 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41432,9 +41626,7 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41471,9 +41663,7 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41510,9 +41700,7 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41549,9 +41737,7 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41588,9 +41774,7 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41627,9 +41811,7 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41666,9 +41848,7 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41705,9 +41885,7 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41744,9 +41922,7 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41783,9 +41959,7 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41822,9 +41996,7 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41861,9 +42033,7 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41900,9 +42070,7 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41939,9 +42107,7 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41978,9 +42144,7 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42017,9 +42181,7 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42056,9 +42218,7 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42095,9 +42255,7 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42134,9 +42292,7 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42173,9 +42329,7 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42212,9 +42366,7 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42251,9 +42403,7 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42290,9 +42440,7 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42329,9 +42477,7 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42368,9 +42514,7 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42407,9 +42551,7 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42446,9 +42588,7 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42485,9 +42625,7 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42524,9 +42662,7 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42563,9 +42699,7 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42602,9 +42736,7 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42641,9 +42773,7 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42680,9 +42810,7 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42719,9 +42847,7 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42758,9 +42884,7 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42797,9 +42921,7 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42836,9 +42958,7 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42875,9 +42995,7 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42914,9 +43032,7 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42953,9 +43069,7 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42992,9 +43106,7 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43031,9 +43143,7 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43070,9 +43180,7 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43109,9 +43217,7 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43148,9 +43254,7 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43187,9 +43291,7 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43226,9 +43328,7 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43265,9 +43365,7 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43304,9 +43402,7 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43343,9 +43439,7 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43382,9 +43476,7 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43421,9 +43513,7 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43460,9 +43550,7 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43499,9 +43587,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43538,9 +43624,7 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43577,9 +43661,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43616,9 +43698,7 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43655,9 +43735,7 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43694,9 +43772,7 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43733,9 +43809,7 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43772,9 +43846,7 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43811,9 +43883,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43850,9 +43920,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43889,9 +43957,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43928,9 +43994,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43967,9 +44031,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44006,9 +44068,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44045,9 +44105,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44084,9 +44142,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44123,9 +44179,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44162,9 +44216,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44201,9 +44253,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44240,9 +44290,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44279,9 +44327,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44318,9 +44364,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44357,9 +44401,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44396,9 +44438,7 @@
         <v>0</v>
       </c>
       <c r="I1274" t="inlineStr"/>
-      <c r="J1274" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1274" t="inlineStr"/>
       <c r="K1274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44435,9 +44475,7 @@
         <v>0</v>
       </c>
       <c r="I1275" t="inlineStr"/>
-      <c r="J1275" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1275" t="inlineStr"/>
       <c r="K1275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44474,9 +44512,7 @@
         <v>0</v>
       </c>
       <c r="I1276" t="inlineStr"/>
-      <c r="J1276" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1276" t="inlineStr"/>
       <c r="K1276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44513,9 +44549,7 @@
         <v>0</v>
       </c>
       <c r="I1277" t="inlineStr"/>
-      <c r="J1277" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1277" t="inlineStr"/>
       <c r="K1277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -44552,9 +44586,7 @@
         <v>0</v>
       </c>
       <c r="I1278" t="inlineStr"/>
-      <c r="J1278" t="n">
-        <v>2.082</v>
-      </c>
+      <c r="J1278" t="inlineStr"/>
       <c r="K1278" t="inlineStr">
         <is>
           <t>매도 대기</t>
